--- a/data/trans_bre/P25A_12_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_12_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>14,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>396,08%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>258,22%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 5,44</t>
+          <t>-7,61; 8,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 13,85</t>
+          <t>4,15; 23,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 10,38</t>
+          <t>1,8; 17,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,78; 26,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>80,72%</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-33,8%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>119,43%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 11,41</t>
+          <t>-10,42; 10,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 10,03</t>
+          <t>-10,78; 10,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 6,34</t>
+          <t>-10,65; 6,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 18,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,77; 1440,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-85,77; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-55,07; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>339,33%</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>186,86%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>438,46%</t>
+          <t>434,03%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>291,68%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 9,24</t>
+          <t>2,93; 13,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 12,51</t>
+          <t>1,25; 14,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 10,99</t>
+          <t>3,72; 13,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,52; —</t>
+          <t>-1,43; 12,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 1179,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,62; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>220,18%</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>213,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,94%</t>
+          <t>187,66%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>57,8%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>55,44%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 11,44</t>
+          <t>0,96; 15,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 8,49</t>
+          <t>0,15; 15,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 9,23</t>
+          <t>-3,95; 12,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 1126,68</t>
+          <t>-4,09; 16,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 429,22</t>
+          <t>-19,01; 1148,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,18; 292,8</t>
+          <t>-25,06; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-47,03; 617,35</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-33,12; 319,43</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>213,86%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>81,09%</t>
+          <t>95,69%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>133,18%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>70,85%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 11,21</t>
+          <t>-8,4; 9,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 13,35</t>
+          <t>-3,05; 14,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 11,39</t>
+          <t>-1,62; 17,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-48,18; 532,45</t>
+          <t>-4,8; 17,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 1280,8</t>
+          <t>-82,89; 448,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,58; 396,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-31,56; 891,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-55,14; 563,22</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>312,74%</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>-25,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>442,55%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45,32%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-57,62%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 17,13</t>
+          <t>-12,29; 4,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 4,26</t>
+          <t>0,0; 19,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 19,15</t>
+          <t>-7,95; 10,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,94; 5,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1066,6 +1192,16 @@
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>146,51%</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>133,81%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>140,43%</t>
+          <t>202,46%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>117,6%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>92,21%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,61</t>
+          <t>-0,14; 6,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,83</t>
+          <t>2,77; 9,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,34</t>
+          <t>0,63; 7,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>38,06; 340,36</t>
+          <t>1,0; 8,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,16; 285,51</t>
+          <t>-7,85; 256,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,65; 334,47</t>
+          <t>54,44; 660,21</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 325,13</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 241,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25A_12_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_12_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,34 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,17</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>30,17%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>1.022338756299626</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12.18984837102076</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.422157160016645</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>14.73495755280966</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3602920407940791</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +662,148 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 8,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,15; 23,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,8; 17,65</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 26,47</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.060701663805712</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4.871752540040683</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.747101788603351</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>7.047982372554873</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.094430125170863</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>26.71632119482346</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.9314076566305</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.14233689156302</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,79</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>14,28%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-33,8%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>119,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,42; 10,52</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,78; 10,27</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 6,3</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 18,05</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-85,77; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-55,07; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.02741040992256</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.336807761746719</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.637810549680041</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.208365121996724</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.4520718452775976</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1677503126350502</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.4502908185971514</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9876032314766015</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,91</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,67</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,91</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>434,03%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>291,68%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-24.15527244408822</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-16.60707486623076</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.4598590978317</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.954453941817909</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.6439597063594203</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,93; 13,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,25; 14,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,72; 13,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 12,34</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.004293093121802</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.376563737013573</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.829512226767317</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.01242288759638</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>4.752693895164058</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +811,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,2</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,24</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,54</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>213,73%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>187,66%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>57,8%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>55,44%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.8996910455522</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.335848994629552</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.301509493271515</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.431936338460631</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>4.552762018740275</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>3.267132229415711</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 15,93</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 15,54</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 12,35</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 16,07</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-19,01; 1148,08</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-25,06; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-47,03; 617,35</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-33,12; 319,43</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2.756598171423856</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.477741056883597</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3.537181486832039</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.011860907245137</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.20323767838832</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.97385932100311</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.60377684641537</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.65580159081405</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,31</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>95,69%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>133,18%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>70,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,4; 9,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 14,16</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 17,86</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,8; 17,37</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-82,89; 448,39</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-31,56; 891,95</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-55,14; 563,22</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>9.084662080339401</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.143350116099517</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.6800000875397</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.28437906015934</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>2.6773974109063</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.891565260952679</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.6163360879015212</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5412735355861813</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,82</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,84</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-4,06</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-25,89%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>45,32%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-57,62%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.956251617392436</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1394651948292578</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.50870638074237</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.164741507593646</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.06150534594233781</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2872872135267408</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4581558921205678</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3606781376103639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 4,74</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 19,41</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,95; 10,2</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-13,94; 5,24</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.6955726404073</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.46291454606413</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.99794896394897</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.21217303176214</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>14.09603547408565</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>15.6038444074415</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>6.457676690818218</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.163241398014792</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +999,279 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,08</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>75,73%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>202,46%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>117,6%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>92,21%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.6786485592233118</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4.007705979453563</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>6.996149707657276</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5.552567793998489</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.09802053140922637</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.114657973905665</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>1.285717290609054</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.7732512451019822</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 6,34</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 9,61</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 7,1</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 8,75</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-7,85; 256,85</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>54,44; 660,21</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 325,13</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>13,29; 241,9</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.003599920771785</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.778299646379086</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-1.553481783642891</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-4.538652652358685</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.819596971220805</v>
+      </c>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="n">
+        <v>-0.3543992947039043</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.5233344798810661</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>10.26855241888206</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>14.23726084860378</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>17.4717220814816</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>17.87951521360688</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>4.957724601881756</v>
+      </c>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="n">
+        <v>8.688291444586003</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>6.237239581722194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-0.2497777837671529</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>5.135153100026087</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.895157829258484</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-5.1290243575594</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.09953636826816298</v>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.285430606704407</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.6789591149566933</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-8.416342381799698</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-9.141102351867902</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-16.91760536944268</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>4.663053520541739</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>21.20264660873795</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>8.811337751529205</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2.74238843882204</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.622532017753555</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>6.001105702014507</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>3.893670453268674</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>4.905428304090448</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.6123508185699775</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.877395219762751</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>1.10646495291047</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.9136708320961172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.522135667305505</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>2.589581727823218</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.5438378337755992</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.9615324207350836</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.3162245393036325</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.3533068158516716</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.05456714916623382</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.1178090141094753</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.116553193369492</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>10.14127003807543</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.949598403410226</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>8.864020967055602</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>2.349625195932441</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>5.902402092783331</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>3.140185849414003</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>2.430218987812958</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1279,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
